--- a/Product Sales/Product Sales Non-Inventory Transaction/Main.rvl.xlsx
+++ b/Product Sales/Product Sales Non-Inventory Transaction/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="90">
   <si>
     <t>Flow</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>C:\UX365RegressionTest\Invoice\Transaction Clean Up\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Product Sales\ProductObjects.js</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Product Sales\Add sales non-inventory product transaction\Main.rvl.xlsx</t>
   </si>
 </sst>
 </file>
@@ -965,7 +971,7 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -986,7 +992,7 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
